--- a/Result/ARIMA/Manufacturing/SGP.xlsx
+++ b/Result/ARIMA/Manufacturing/SGP.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>26.52611559513869</v>
+        <v>22.64913599676362</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7581049024776</v>
+        <v>26.07962720512022</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.29291490588914</v>
+        <v>25.40006367834748</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>21.46434389615849</v>
+        <v>22.33393874347184</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40238291509307</v>
+        <v>21.60078926660292</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>20.11536164922619</v>
+        <v>21.54596395854735</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>22.61381615789615</v>
+        <v>20.40716118038087</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>24.09005587328071</v>
+        <v>22.6178837310137</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>26.07842073053191</v>
+        <v>23.92411380949441</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>25.30122250585156</v>
+        <v>25.68349066168738</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>24.40422570975837</v>
+        <v>24.99579767562324</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45987665323874</v>
+        <v>24.20210259809138</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>24.34968358529537</v>
+        <v>25.13618058040023</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47185597678178</v>
+        <v>24.15384176160572</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.62472169260649</v>
+        <v>24.26194429458621</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>23.98506226333385</v>
+        <v>23.5123693637873</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>23.16721806017505</v>
+        <v>23.83121168124817</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>22.15150365521268</v>
+        <v>23.10755366924378</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>22.68745264851204</v>
+        <v>22.20881297484215</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>22.85068631305447</v>
+        <v>22.68303995050423</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>25.8614860377559</v>
+        <v>22.82747497702729</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>23.39469784741456</v>
+        <v>25.49153903092111</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>24.73764032297293</v>
+        <v>23.30883597945532</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>24.76541269319689</v>
+        <v>24.49711985839617</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>27.11936759706429</v>
+        <v>24.52169385200925</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>27.07676179820706</v>
+        <v>26.60455794703042</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>26.57800598580277</v>
+        <v>26.56685880142078</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>23.82265190452721</v>
+        <v>26.12554169201768</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>20.58566497384844</v>
+        <v>23.68750514529793</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>20.27337642907351</v>
+        <v>20.82330250365575</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>20.77383302531255</v>
+        <v>20.54697834972677</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>19.58255150797782</v>
+        <v>20.98980037393388</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>19.11682198006619</v>
+        <v>19.93571157408378</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>17.63840961487545</v>
+        <v>19.52361731089949</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>17.99976889212852</v>
+        <v>18.21546479360531</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>18.08932985487341</v>
+        <v>18.5352084992968</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>17.50825828041602</v>
+        <v>18.61445526537136</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>26.52611559513869</v>
+        <v>22.84260586636905</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7581049024776</v>
+        <v>26.01623118361493</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.29291490588914</v>
+        <v>25.35453124045803</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>21.46434389615849</v>
+        <v>22.36900506786568</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40238291509307</v>
+        <v>21.65512778037565</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>20.11536164922619</v>
+        <v>21.60174365689832</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>22.61381615789615</v>
+        <v>20.49287641506989</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>24.09005587328071</v>
+        <v>22.64548603647859</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>26.07842073053191</v>
+        <v>23.91737944250828</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>25.30122250585156</v>
+        <v>25.63050782156707</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>24.40422570975837</v>
+        <v>24.96089211698524</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45987665323874</v>
+        <v>24.18806078187685</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>24.34968358529537</v>
+        <v>25.09758479758315</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47185597678178</v>
+        <v>24.14106857069841</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.62472169260649</v>
+        <v>24.24632942874948</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>23.98506226333385</v>
+        <v>23.51645846075188</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>23.16721806017505</v>
+        <v>23.8269194184519</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>22.15150365521268</v>
+        <v>23.1222840951255</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>22.68745264851204</v>
+        <v>22.24716846138544</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>22.85068631305447</v>
+        <v>22.70892950428498</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>25.8614860377559</v>
+        <v>22.84956778911767</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>23.39469784741456</v>
+        <v>25.44360199427803</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>24.73764032297293</v>
+        <v>23.31827532770089</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>24.76541269319689</v>
+        <v>24.47532296809371</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>27.11936759706429</v>
+        <v>24.49925098885453</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>27.07676179820706</v>
+        <v>26.52736315053029</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>26.57800598580277</v>
+        <v>26.49065499665772</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>23.82265190452721</v>
+        <v>26.06093872334181</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>20.58566497384844</v>
+        <v>23.68699047447056</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>20.27337642907351</v>
+        <v>20.89807869433864</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>20.77383302531255</v>
+        <v>20.6290182316384</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>19.58255150797782</v>
+        <v>21.06019986029055</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>19.11682198006619</v>
+        <v>20.03381973324703</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>17.63840961487545</v>
+        <v>19.63255812961255</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>17.99976889212852</v>
+        <v>18.35879281962764</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>18.08932985487341</v>
+        <v>18.67013147090224</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>17.50825828041602</v>
+        <v>18.7472950892264</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>18.58334720710878</v>
+        <v>18.24665749203839</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>20.73630601356827</v>
+        <v>19.17292881674655</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>19.43284515107672</v>
+        <v>21.02786746990155</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>19.95498366095388</v>
+        <v>19.90483625840966</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>21.07415385601889</v>
+        <v>20.35469851372361</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
